--- a/assets/plant_health_data.xlsx
+++ b/assets/plant_health_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\flutter\plant_data\plant_health_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000B447D-551D-4C2A-B0CC-AD4734BDEA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A8D14-0331-47C1-A274-CED18706F60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19500" yWindow="510" windowWidth="18620" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>youngLeavesChlorosis</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>cause</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>imageData</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,7 +457,7 @@
     <col min="24" max="24" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,6 +529,15 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
